--- a/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Create.xlsx
+++ b/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\Collateral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BA7F9-FC7E-4C70-B6F8-162E1E3C3569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498F3A36-AA4F-4AB5-8438-D8FF060EF5EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>BASIL II Accepted</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Collateral</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1666,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1811,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -1829,16 +1829,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -1847,16 +1847,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -1865,16 +1865,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24"/>
     </row>
@@ -1883,16 +1883,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -1901,16 +1901,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -1919,16 +1919,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -1937,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -1955,16 +1955,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -1973,16 +1973,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -1991,16 +1991,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -2009,16 +2009,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -2027,16 +2027,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -2045,16 +2045,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -2063,16 +2063,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="24"/>
     </row>
@@ -2084,13 +2084,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24"/>
     </row>
@@ -2099,16 +2099,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24"/>
     </row>
@@ -2117,16 +2117,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="24"/>
     </row>
@@ -2135,16 +2135,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -2153,16 +2153,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24"/>
     </row>
@@ -2171,16 +2171,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="24"/>
     </row>
@@ -2189,16 +2189,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24"/>
     </row>
@@ -2207,16 +2207,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -2225,16 +2225,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -2243,16 +2243,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -2261,16 +2261,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="24"/>
     </row>
@@ -2279,16 +2279,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="24"/>
     </row>
@@ -2297,16 +2297,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="24"/>
     </row>
@@ -2315,16 +2315,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="24"/>
     </row>
@@ -2333,16 +2333,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="24"/>
     </row>
@@ -2351,16 +2351,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="24"/>
     </row>
@@ -2372,13 +2372,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="24"/>
     </row>
@@ -2387,16 +2387,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="24"/>
     </row>
@@ -2405,16 +2405,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="24"/>
     </row>
@@ -2423,16 +2423,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="24"/>
     </row>
@@ -2441,16 +2441,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="24"/>
     </row>
@@ -2459,16 +2459,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="24"/>
     </row>
@@ -2477,16 +2477,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>32</v>
-      </c>
       <c r="E39" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="24"/>
     </row>
@@ -2495,16 +2495,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="D40" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="24"/>
     </row>
@@ -2513,16 +2513,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" s="24"/>
     </row>
@@ -2531,16 +2531,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="24"/>
     </row>
@@ -2549,16 +2549,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -2567,16 +2567,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="D44" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="24"/>
     </row>
@@ -2585,16 +2585,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="24"/>
     </row>
@@ -2603,16 +2603,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="D46" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" s="24"/>
     </row>
@@ -3185,16 +3185,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -3203,16 +3203,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -3221,16 +3221,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -3239,16 +3239,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -3257,16 +3257,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -3275,16 +3275,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -3293,16 +3293,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -3311,16 +3311,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -3329,16 +3329,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -3347,16 +3347,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -3365,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -3383,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="24"/>
     </row>
